--- a/Document/Transport Data Dictionary.xlsx
+++ b/Document/Transport Data Dictionary.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\QTrans\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59312709-613E-44BC-840A-E08F2C44B0AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataDic" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="244">
   <si>
     <t>Table Name</t>
   </si>
@@ -637,19 +643,124 @@
   </si>
   <si>
     <t>preferenceId</t>
+  </si>
+  <si>
+    <t>TblMstProduct</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Device ID</t>
+  </si>
+  <si>
+    <t>UnitId</t>
+  </si>
+  <si>
+    <t>IMEI</t>
+  </si>
+  <si>
+    <t>Varcahr</t>
+  </si>
+  <si>
+    <t>Device unique identity</t>
+  </si>
+  <si>
+    <t>RegisterDate</t>
+  </si>
+  <si>
+    <t>Device purchase/register date</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Device Software and hardware version</t>
+  </si>
+  <si>
+    <t>FirmwareVersion</t>
+  </si>
+  <si>
+    <t>Device Firmware version</t>
+  </si>
+  <si>
+    <t>WarrentyExpDate</t>
+  </si>
+  <si>
+    <t>Device Warrenty Expiery Date</t>
+  </si>
+  <si>
+    <t>TblDtlProduct</t>
+  </si>
+  <si>
+    <t>dtlProductId</t>
+  </si>
+  <si>
+    <t>InsttalationDate</t>
+  </si>
+  <si>
+    <t>Device installation date</t>
+  </si>
+  <si>
+    <t>Device Unit logical Name</t>
+  </si>
+  <si>
+    <t>UnitName</t>
+  </si>
+  <si>
+    <t>Active/Inactive</t>
+  </si>
+  <si>
+    <t>none/Install/Repair/falty</t>
+  </si>
+  <si>
+    <t>TblMstLocation</t>
+  </si>
+  <si>
+    <t>FK, Ref to TblMstProduct</t>
+  </si>
+  <si>
+    <t>LocationId</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <t>odo</t>
+  </si>
+  <si>
+    <t>deviceDatetime</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>msgid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,159 +789,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -843,194 +803,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1053,258 +827,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1315,9 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1328,62 +854,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1670,24 +1158,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B2:G214"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217:G231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="25.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="11.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="31.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -1695,11 +1183,11 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7">
@@ -1723,487 +1211,487 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>50</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>50</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>50</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4"/>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>15</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>200</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="3">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>100</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>15</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>20</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>20</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>20</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>25</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>18</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="4">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="3">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>19</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>16</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>20</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>21</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>22</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7">
@@ -2227,203 +1715,203 @@
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>100</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="4"/>
+      <c r="F34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="4"/>
+      <c r="F35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>20</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="4"/>
+      <c r="F36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>20</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>15</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="4"/>
+      <c r="F38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>20</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="4"/>
+      <c r="F39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>20</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="4"/>
+      <c r="F40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="4"/>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="4"/>
-      <c r="C42" s="5" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="4"/>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="4"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="4"/>
-      <c r="C44" s="5" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7">
@@ -2447,173 +1935,173 @@
       </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" ht="30" spans="2:7">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
+    <row r="50" spans="2:7" ht="45">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>20</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="6" t="s">
+      <c r="F50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>200</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="4"/>
-      <c r="C52" s="5" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>1</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="5" t="s">
+      <c r="F52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8" t="s">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="8" t="s">
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="10"/>
-      <c r="C56" s="10" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10" t="s">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="10"/>
-      <c r="C57" s="10" t="s">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="8">
         <v>20</v>
       </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10" t="s">
+      <c r="F57" s="8"/>
+      <c r="G57" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="10"/>
-      <c r="C58" s="10" t="s">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="8">
         <v>200</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="7"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="2:7">
@@ -2638,92 +2126,92 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="1"/>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="4" t="s">
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="1"/>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="4" t="s">
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="1"/>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="4" t="s">
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="1"/>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="4" t="s">
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="1"/>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4" t="s">
+      <c r="E67" s="3"/>
+      <c r="F67" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="1"/>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G68" s="1"/>
@@ -2733,11 +2221,11 @@
       <c r="C70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="2:7">
@@ -2761,219 +2249,219 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4" t="s">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="4" t="s">
+      <c r="E72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4" t="s">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="3">
         <v>20</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="4" t="s">
+      <c r="F73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="4"/>
-      <c r="C74" s="13" t="s">
+      <c r="B74" s="3"/>
+      <c r="C74" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="3">
         <v>20</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="4"/>
+      <c r="F74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="4"/>
-      <c r="C75" s="13" t="s">
+      <c r="B75" s="3"/>
+      <c r="C75" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="3">
         <v>200</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="4"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4" t="s">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="4"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4" t="s">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="4"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4" t="s">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="4"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="3"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4" t="s">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <v>100</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="4"/>
+      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4" t="s">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="3">
         <v>50</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="4" t="s">
+      <c r="F80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4" t="s">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="4" t="s">
+      <c r="E81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4" t="s">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="4"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="3"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="4"/>
-      <c r="C83" s="5" t="s">
+      <c r="B83" s="3"/>
+      <c r="C83" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="4"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="3"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="4"/>
-      <c r="C84" s="5" t="s">
+      <c r="B84" s="3"/>
+      <c r="C84" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4" t="s">
+      <c r="E84" s="3"/>
+      <c r="F84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="3:4">
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7">
@@ -2997,148 +2485,148 @@
       </c>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4" t="s">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4" t="s">
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4" t="s">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="3">
         <v>100</v>
       </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4" t="s">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <v>30</v>
       </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4" t="s">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="3">
         <v>100</v>
       </c>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4" t="s">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="3">
         <v>200</v>
       </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4" t="s">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4" t="s">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4" t="s">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4" t="s">
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="4"/>
-      <c r="C97" s="5" t="s">
+      <c r="B97" s="3"/>
+      <c r="C97" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="4"/>
-      <c r="C98" s="5" t="s">
+      <c r="B98" s="3"/>
+      <c r="C98" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="12" t="s">
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="10" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3163,182 +2651,182 @@
       </c>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4" t="s">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4" t="s">
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="4"/>
-      <c r="C104" s="4" t="s">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="4">
-        <v>10</v>
-      </c>
-      <c r="F104" s="4"/>
-      <c r="G104" s="14" t="s">
+      <c r="E104" s="3">
+        <v>10</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="4"/>
-      <c r="C105" s="4" t="s">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4" t="s">
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="4"/>
-      <c r="C106" s="4" t="s">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="3">
         <v>200</v>
       </c>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="4"/>
-      <c r="C107" s="4" t="s">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="3">
         <v>200</v>
       </c>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="4"/>
-      <c r="C108" s="4" t="s">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4" t="s">
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="4"/>
-      <c r="C109" s="4" t="s">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="4"/>
-      <c r="C110" s="4" t="s">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4" t="s">
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="2:6">
-      <c r="B111" s="4"/>
-      <c r="C111" s="4" t="s">
+    <row r="111" spans="2:7">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="3">
         <v>200</v>
       </c>
-      <c r="F111" s="4"/>
+      <c r="F111" s="3"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="4"/>
-      <c r="C112" s="5" t="s">
+      <c r="B112" s="3"/>
+      <c r="C112" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="4"/>
-      <c r="C113" s="5" t="s">
+      <c r="B113" s="3"/>
+      <c r="C113" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="7"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="7"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="2:7">
@@ -3362,55 +2850,55 @@
       </c>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="12"/>
-      <c r="C118" s="12" t="s">
+      <c r="B118" s="10"/>
+      <c r="C118" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D118" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="4" t="s">
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="12"/>
-      <c r="C119" s="12" t="s">
+      <c r="B119" s="10"/>
+      <c r="C119" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D119" s="12" t="s">
+      <c r="D119" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12">
+      <c r="E119" s="10"/>
+      <c r="F119" s="10">
         <v>50</v>
       </c>
-      <c r="G119" s="12" t="s">
+      <c r="G119" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="12"/>
-      <c r="C120" s="15" t="s">
+      <c r="B120" s="10"/>
+      <c r="C120" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="2:7">
@@ -3434,71 +2922,71 @@
       </c>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="12"/>
-      <c r="C124" s="12" t="s">
+      <c r="B124" s="10"/>
+      <c r="C124" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D124" s="12" t="s">
+      <c r="D124" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="4" t="s">
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="12"/>
-      <c r="C125" s="12" t="s">
+      <c r="B125" s="10"/>
+      <c r="C125" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D125" s="12" t="s">
+      <c r="D125" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12">
+      <c r="E125" s="10"/>
+      <c r="F125" s="10">
         <v>50</v>
       </c>
-      <c r="G125" s="12" t="s">
+      <c r="G125" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="12"/>
-      <c r="C126" s="15" t="s">
+      <c r="B126" s="10"/>
+      <c r="C126" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="16"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="16"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="1"/>
       <c r="C129" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="2:7">
@@ -3522,56 +3010,56 @@
       </c>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="12"/>
-      <c r="C131" s="12" t="s">
+      <c r="B131" s="10"/>
+      <c r="C131" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D131" s="12" t="s">
+      <c r="D131" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="4" t="s">
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="12"/>
-      <c r="C132" s="12" t="s">
+      <c r="B132" s="10"/>
+      <c r="C132" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D132" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12">
+      <c r="E132" s="10"/>
+      <c r="F132" s="10">
         <v>50</v>
       </c>
-      <c r="G132" s="12" t="s">
+      <c r="G132" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="12"/>
-      <c r="C133" s="15" t="s">
+      <c r="B133" s="10"/>
+      <c r="C133" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
     </row>
     <row r="135" spans="2:7">
       <c r="B135" s="1"/>
       <c r="C135" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="12" t="s">
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="10" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3596,462 +3084,462 @@
       </c>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="4"/>
-      <c r="C137" s="5" t="s">
+      <c r="B137" s="3"/>
+      <c r="C137" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4" t="s">
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="4"/>
-      <c r="C138" s="4" t="s">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4" t="s">
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="4"/>
-      <c r="C139" s="4" t="s">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="4" t="s">
+      <c r="E139" s="3"/>
+      <c r="F139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="4"/>
-      <c r="C140" s="4" t="s">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="3">
         <v>100</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="G140" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="4"/>
-      <c r="C141" s="4" t="s">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="3">
         <v>50</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G141" s="4"/>
+      <c r="G141" s="3"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="4"/>
-      <c r="C142" s="4" t="s">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="4"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="3"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="4"/>
-      <c r="C143" s="4" t="s">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="4" t="s">
+      <c r="E143" s="3"/>
+      <c r="F143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="4"/>
-      <c r="C144" s="4" t="s">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="4" t="s">
+      <c r="E144" s="3"/>
+      <c r="F144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="4"/>
-      <c r="C145" s="4" t="s">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4" t="s">
+      <c r="E145" s="3"/>
+      <c r="F145" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G145" s="4" t="s">
+      <c r="G145" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="4"/>
-      <c r="C146" s="4" t="s">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D146" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="4"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="3"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="10"/>
-      <c r="C147" s="10" t="s">
+      <c r="B147" s="8"/>
+      <c r="C147" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D147" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10" t="s">
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="4"/>
-      <c r="C148" s="5" t="s">
+      <c r="B148" s="3"/>
+      <c r="C148" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D148" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="6" t="s">
+      <c r="E148" s="3"/>
+      <c r="F148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" ht="30" spans="2:7">
-      <c r="B149" s="4"/>
-      <c r="C149" s="5" t="s">
+    <row r="149" spans="2:7" ht="30">
+      <c r="B149" s="3"/>
+      <c r="C149" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="6" t="s">
+      <c r="E149" s="3"/>
+      <c r="F149" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="4"/>
-      <c r="C150" s="5" t="s">
+      <c r="B150" s="3"/>
+      <c r="C150" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="6" t="s">
+      <c r="E150" s="3"/>
+      <c r="F150" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="4"/>
-      <c r="C151" s="4" t="s">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4" t="s">
+      <c r="E151" s="3"/>
+      <c r="F151" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G151" s="4" t="s">
+      <c r="G151" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="4"/>
-      <c r="C152" s="4" t="s">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4" t="s">
+      <c r="E152" s="3"/>
+      <c r="F152" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G152" s="4" t="s">
+      <c r="G152" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="153" spans="2:7">
-      <c r="B153" s="4"/>
-      <c r="C153" s="4" t="s">
+      <c r="B153" s="3"/>
+      <c r="C153" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="4" t="s">
+      <c r="E153" s="3"/>
+      <c r="F153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="4"/>
-      <c r="C154" s="4" t="s">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D154" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="4" t="s">
+      <c r="E154" s="3"/>
+      <c r="F154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="155" spans="2:7">
-      <c r="B155" s="4"/>
-      <c r="C155" s="4" t="s">
+      <c r="B155" s="3"/>
+      <c r="C155" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="D155" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="4" t="s">
+      <c r="E155" s="3"/>
+      <c r="F155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="4"/>
-      <c r="C156" s="5" t="s">
+      <c r="B156" s="3"/>
+      <c r="C156" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="5" t="s">
+      <c r="E156" s="3"/>
+      <c r="F156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="157" spans="2:7">
-      <c r="B157" s="4"/>
-      <c r="C157" s="5" t="s">
+      <c r="B157" s="3"/>
+      <c r="C157" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="5"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="4"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="4"/>
-      <c r="C158" s="5" t="s">
+      <c r="B158" s="3"/>
+      <c r="C158" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="5"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="4"/>
     </row>
     <row r="159" spans="2:7">
-      <c r="B159" s="4"/>
-      <c r="C159" s="5" t="s">
+      <c r="B159" s="3"/>
+      <c r="C159" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="5"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="4"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="4"/>
-      <c r="C160" s="5" t="s">
+      <c r="B160" s="3"/>
+      <c r="C160" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="5" t="s">
+      <c r="E160" s="3"/>
+      <c r="F160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="4"/>
-      <c r="C161" s="5" t="s">
+      <c r="B161" s="3"/>
+      <c r="C161" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D161" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="5"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="4"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="4"/>
-      <c r="C162" s="5" t="s">
+      <c r="B162" s="3"/>
+      <c r="C162" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4">
+      <c r="E162" s="3"/>
+      <c r="F162" s="3">
         <v>200</v>
       </c>
-      <c r="G162" s="5" t="s">
+      <c r="G162" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="4"/>
-      <c r="C163" s="5" t="s">
+      <c r="B163" s="3"/>
+      <c r="C163" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="5" t="s">
+      <c r="E163" s="3"/>
+      <c r="F163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="4"/>
-      <c r="C164" s="5" t="s">
+      <c r="B164" s="3"/>
+      <c r="C164" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="5"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="4"/>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="4"/>
-      <c r="C165" s="5" t="s">
+      <c r="B165" s="3"/>
+      <c r="C165" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="5"/>
-    </row>
-    <row r="166" spans="3:7">
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="11"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="9"/>
     </row>
     <row r="168" spans="2:7">
       <c r="B168" s="1"/>
       <c r="C168" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="2:7">
@@ -4075,157 +3563,157 @@
       </c>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="4"/>
-      <c r="C170" s="4" t="s">
+      <c r="B170" s="3"/>
+      <c r="C170" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="D170" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4" t="s">
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="4"/>
-      <c r="C171" s="4" t="s">
+      <c r="B171" s="3"/>
+      <c r="C171" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4" t="s">
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="4"/>
-      <c r="C172" s="4" t="s">
+      <c r="B172" s="3"/>
+      <c r="C172" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D172" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4" t="s">
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="4"/>
-      <c r="C173" s="5" t="s">
+      <c r="B173" s="3"/>
+      <c r="C173" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="4" t="s">
+      <c r="E173" s="3"/>
+      <c r="F173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="4"/>
-      <c r="C174" s="5" t="s">
+      <c r="B174" s="3"/>
+      <c r="C174" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174" s="3">
         <v>500</v>
       </c>
-      <c r="F174" s="4" t="s">
+      <c r="F174" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G174" s="4"/>
+      <c r="G174" s="3"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="4"/>
-      <c r="C175" s="5" t="s">
+      <c r="B175" s="3"/>
+      <c r="C175" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="D175" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="5" t="s">
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="4"/>
-      <c r="C176" s="5" t="s">
+      <c r="B176" s="3"/>
+      <c r="C176" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-    </row>
-    <row r="177" ht="30" spans="2:7">
-      <c r="B177" s="4"/>
-      <c r="C177" s="5" t="s">
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+    </row>
+    <row r="177" spans="2:7" ht="30">
+      <c r="B177" s="3"/>
+      <c r="C177" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="D177" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="6" t="s">
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="4"/>
-      <c r="C178" s="5" t="s">
+      <c r="B178" s="3"/>
+      <c r="C178" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D178" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4" t="s">
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="4"/>
-      <c r="C179" s="5" t="s">
+      <c r="B179" s="3"/>
+      <c r="C179" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="D179" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E179" s="4">
+      <c r="E179" s="3">
         <v>200</v>
       </c>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
     </row>
     <row r="182" spans="2:7">
       <c r="B182" s="1"/>
       <c r="C182" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="2:7">
@@ -4249,62 +3737,62 @@
       </c>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="4"/>
-      <c r="C184" s="4" t="s">
+      <c r="B184" s="3"/>
+      <c r="C184" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="D184" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
-      <c r="G184" s="4" t="s">
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="4"/>
-      <c r="C185" s="5" t="s">
+      <c r="B185" s="3"/>
+      <c r="C185" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E185" s="4"/>
-      <c r="F185" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="4" t="s">
+      <c r="E185" s="3"/>
+      <c r="F185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="4"/>
-      <c r="C186" s="5" t="s">
+      <c r="B186" s="3"/>
+      <c r="C186" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="4" t="s">
+      <c r="E186" s="3"/>
+      <c r="F186" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="187" spans="2:7">
-      <c r="B187" s="4"/>
-      <c r="C187" s="4" t="s">
+      <c r="B187" s="3"/>
+      <c r="C187" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D187" s="4" t="s">
+      <c r="D187" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4" t="s">
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4313,11 +3801,11 @@
       <c r="C190" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="16"/>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="2:7">
@@ -4341,91 +3829,91 @@
       </c>
     </row>
     <row r="192" spans="2:7">
-      <c r="B192" s="4"/>
-      <c r="C192" s="4" t="s">
+      <c r="B192" s="3"/>
+      <c r="C192" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D192" s="4" t="s">
+      <c r="D192" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4" t="s">
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="193" spans="2:7">
-      <c r="B193" s="4"/>
-      <c r="C193" s="4" t="s">
+      <c r="B193" s="3"/>
+      <c r="C193" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D193" s="4" t="s">
+      <c r="D193" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4" t="s">
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="194" spans="2:7">
-      <c r="B194" s="4"/>
-      <c r="C194" s="4" t="s">
+      <c r="B194" s="3"/>
+      <c r="C194" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
     </row>
     <row r="195" spans="2:7">
-      <c r="B195" s="4"/>
-      <c r="C195" s="4" t="s">
+      <c r="B195" s="3"/>
+      <c r="C195" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D195" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
     </row>
     <row r="196" spans="2:7">
-      <c r="B196" s="4"/>
-      <c r="C196" s="4" t="s">
+      <c r="B196" s="3"/>
+      <c r="C196" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D196" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E196" s="4"/>
-      <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
     </row>
     <row r="197" spans="2:7">
-      <c r="B197" s="4"/>
-      <c r="C197" s="4" t="s">
+      <c r="B197" s="3"/>
+      <c r="C197" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="D197" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E197" s="4"/>
-      <c r="F197" s="4"/>
-      <c r="G197" s="4"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
     </row>
     <row r="199" spans="2:7">
       <c r="B199" s="1"/>
       <c r="C199" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="16"/>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="2:7">
@@ -4449,107 +3937,107 @@
       </c>
     </row>
     <row r="201" spans="2:7">
-      <c r="B201" s="4"/>
-      <c r="C201" s="4" t="s">
+      <c r="B201" s="3"/>
+      <c r="C201" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D201" s="4" t="s">
+      <c r="D201" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-      <c r="G201" s="4" t="s">
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="202" spans="2:7">
-      <c r="B202" s="4"/>
-      <c r="C202" s="4" t="s">
+      <c r="B202" s="3"/>
+      <c r="C202" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D202" s="4" t="s">
+      <c r="D202" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
-      <c r="G202" s="4" t="s">
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="203" spans="2:7">
-      <c r="B203" s="4"/>
-      <c r="C203" s="4" t="s">
+      <c r="B203" s="3"/>
+      <c r="C203" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D203" s="4" t="s">
+      <c r="D203" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4" t="s">
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="204" spans="2:7">
-      <c r="B204" s="4"/>
-      <c r="C204" s="4" t="s">
+      <c r="B204" s="3"/>
+      <c r="C204" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D204" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="4"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
     </row>
     <row r="205" spans="2:7">
-      <c r="B205" s="4"/>
-      <c r="C205" s="4" t="s">
+      <c r="B205" s="3"/>
+      <c r="C205" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="D205" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E205" s="4"/>
-      <c r="F205" s="4"/>
-      <c r="G205" s="4"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
     </row>
     <row r="206" spans="2:7">
-      <c r="B206" s="4"/>
-      <c r="C206" s="4" t="s">
+      <c r="B206" s="3"/>
+      <c r="C206" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="D206" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="4"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
     </row>
     <row r="207" spans="2:7">
-      <c r="B207" s="4"/>
-      <c r="C207" s="5" t="s">
+      <c r="B207" s="3"/>
+      <c r="C207" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="D207" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E207" s="4" t="s">
+      <c r="E207" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
     </row>
     <row r="210" spans="2:7">
       <c r="B210" s="1"/>
       <c r="C210" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
+      <c r="E210" s="16"/>
+      <c r="F210" s="16"/>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="2:7">
@@ -4573,101 +4061,1173 @@
       </c>
     </row>
     <row r="212" spans="2:7">
-      <c r="B212" s="4"/>
-      <c r="C212" s="4" t="s">
+      <c r="B212" s="3"/>
+      <c r="C212" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D212" s="4" t="s">
+      <c r="D212" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E212" s="4"/>
-      <c r="F212" s="4"/>
-      <c r="G212" s="4" t="s">
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="213" spans="2:7">
-      <c r="B213" s="4"/>
-      <c r="C213" s="4" t="s">
+      <c r="B213" s="3"/>
+      <c r="C213" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D213" s="4" t="s">
+      <c r="D213" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E213" s="4"/>
-      <c r="F213" s="4"/>
-      <c r="G213" s="4" t="s">
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="214" spans="2:7">
-      <c r="B214" s="4"/>
-      <c r="C214" s="4" t="s">
+      <c r="B214" s="3"/>
+      <c r="C214" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D214" s="5" t="s">
+      <c r="D214" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E214" s="4">
+      <c r="E214" s="3">
         <v>50</v>
       </c>
-      <c r="F214" s="4"/>
-      <c r="G214" s="4"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="B217" s="1"/>
+      <c r="C217" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E217" s="16"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="2:7">
+      <c r="B218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7">
+      <c r="C219" t="s">
+        <v>208</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7">
+      <c r="C220" t="s">
+        <v>211</v>
+      </c>
+      <c r="D220" t="s">
+        <v>209</v>
+      </c>
+      <c r="G220" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7">
+      <c r="C221" t="s">
+        <v>212</v>
+      </c>
+      <c r="D221" t="s">
+        <v>213</v>
+      </c>
+      <c r="G221" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7">
+      <c r="C222" t="s">
+        <v>215</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="G222" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7">
+      <c r="C223" t="s">
+        <v>217</v>
+      </c>
+      <c r="D223" t="s">
+        <v>77</v>
+      </c>
+      <c r="G223" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7">
+      <c r="C224" t="s">
+        <v>219</v>
+      </c>
+      <c r="D224" t="s">
+        <v>77</v>
+      </c>
+      <c r="G224" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7">
+      <c r="C225" t="s">
+        <v>221</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="G225" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7">
+      <c r="B229" s="1"/>
+      <c r="C229" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D229" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E229" s="16"/>
+      <c r="F229" s="16"/>
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="2:7">
+      <c r="B230" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7">
+      <c r="C231" t="s">
+        <v>224</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="D217:F217"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D122:F122"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="D182:F182"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="D199:F199"/>
-    <mergeCell ref="D210:F210"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="3"/>
+      <c r="C6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="3"/>
+      <c r="C7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>200</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3">
+        <v>30</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3">
+        <v>200</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="3"/>
+      <c r="C30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="3">
+        <v>20</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="3">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="3">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="3"/>
+      <c r="C43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="3"/>
+      <c r="C44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="6"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="3"/>
+      <c r="C52" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="3"/>
+      <c r="C53" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="3">
+        <v>10</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="3"/>
+      <c r="C54" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="3"/>
+      <c r="C55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="3"/>
+      <c r="C56" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="3"/>
+      <c r="C64" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="3"/>
+      <c r="C65" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="3">
+        <v>20</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="3"/>
+      <c r="C66" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="3"/>
+      <c r="C67" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="3"/>
+      <c r="C68" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="3"/>
+      <c r="C69" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="3"/>
+      <c r="C70" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="3"/>
+      <c r="C71" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="3"/>
+      <c r="C72" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="3"/>
+      <c r="C73" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D60:F60"/>
+  </mergeCells>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/Transport Data Dictionary.xlsx
+++ b/Document/Transport Data Dictionary.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\QTrans\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59312709-613E-44BC-840A-E08F2C44B0AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACA6A41-AB33-4536-ADBB-5FE819EC5B58}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataDic" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="vehicle" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -717,9 +717,6 @@
     <t>none/Install/Repair/falty</t>
   </si>
   <si>
-    <t>TblMstLocation</t>
-  </si>
-  <si>
     <t>FK, Ref to TblMstProduct</t>
   </si>
   <si>
@@ -754,6 +751,9 @@
   </si>
   <si>
     <t>msgid</t>
+  </si>
+  <si>
+    <t>TblLocation</t>
   </si>
 </sst>
 </file>
@@ -4260,6 +4260,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D122:F122"/>
     <mergeCell ref="D199:F199"/>
     <mergeCell ref="D210:F210"/>
     <mergeCell ref="D217:F217"/>
@@ -4269,16 +4279,6 @@
     <mergeCell ref="D168:F168"/>
     <mergeCell ref="D182:F182"/>
     <mergeCell ref="D190:F190"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D61:F61"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4289,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -4354,11 +4354,9 @@
         <v>85</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3">
-        <v>20</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
@@ -4766,7 +4764,7 @@
         <v>212</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="E37" s="3">
         <v>20</v>
@@ -4939,7 +4937,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -5030,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
@@ -5059,7 +5057,7 @@
     <row r="62" spans="2:7">
       <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>108</v>
@@ -5081,16 +5079,16 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="3"/>
       <c r="C64" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -5101,7 +5099,7 @@
     <row r="65" spans="2:7">
       <c r="B65" s="3"/>
       <c r="C65" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>77</v>
@@ -5115,7 +5113,7 @@
     <row r="66" spans="2:7">
       <c r="B66" s="3"/>
       <c r="C66" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>35</v>
@@ -5127,7 +5125,7 @@
     <row r="67" spans="2:7">
       <c r="B67" s="3"/>
       <c r="C67" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>35</v>
@@ -5139,7 +5137,7 @@
     <row r="68" spans="2:7">
       <c r="B68" s="3"/>
       <c r="C68" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>35</v>
@@ -5151,7 +5149,7 @@
     <row r="69" spans="2:7">
       <c r="B69" s="3"/>
       <c r="C69" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>35</v>
@@ -5163,7 +5161,7 @@
     <row r="70" spans="2:7">
       <c r="B70" s="3"/>
       <c r="C70" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>108</v>
@@ -5175,7 +5173,7 @@
     <row r="71" spans="2:7">
       <c r="B71" s="3"/>
       <c r="C71" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>28</v>
@@ -5187,7 +5185,7 @@
     <row r="72" spans="2:7">
       <c r="B72" s="3"/>
       <c r="C72" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>108</v>

--- a/Document/Transport Data Dictionary.xlsx
+++ b/Document/Transport Data Dictionary.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\QTrans\Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACA6A41-AB33-4536-ADBB-5FE819EC5B58}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataDic" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252">
   <si>
     <t>Table Name</t>
   </si>
@@ -651,15 +645,15 @@
     <t>productId</t>
   </si>
   <si>
+    <t>UnitId</t>
+  </si>
+  <si>
     <t>Int</t>
   </si>
   <si>
     <t>Device ID</t>
   </si>
   <si>
-    <t>UnitId</t>
-  </si>
-  <si>
     <t>IMEI</t>
   </si>
   <si>
@@ -699,30 +693,45 @@
     <t>dtlProductId</t>
   </si>
   <si>
+    <t>none/Install/Repair/falty</t>
+  </si>
+  <si>
+    <t>FK, Ref to TblMstProduct</t>
+  </si>
+  <si>
     <t>InsttalationDate</t>
   </si>
   <si>
     <t>Device installation date</t>
   </si>
   <si>
+    <t>UnitName</t>
+  </si>
+  <si>
     <t>Device Unit logical Name</t>
   </si>
   <si>
-    <t>UnitName</t>
-  </si>
-  <si>
     <t>Active/Inactive</t>
   </si>
   <si>
-    <t>none/Install/Repair/falty</t>
-  </si>
-  <si>
-    <t>FK, Ref to TblMstProduct</t>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>TblLocation</t>
   </si>
   <si>
     <t>LocationId</t>
   </si>
   <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
     <t>speed</t>
   </si>
   <si>
@@ -735,41 +744,48 @@
     <t>dir</t>
   </si>
   <si>
-    <t>loc</t>
-  </si>
-  <si>
-    <t>fix</t>
-  </si>
-  <si>
     <t>odo</t>
   </si>
   <si>
     <t>deviceDatetime</t>
   </si>
   <si>
-    <t>Char</t>
-  </si>
-  <si>
     <t>msgid</t>
   </si>
   <si>
-    <t>TblLocation</t>
+    <t>connector.AddInParameterWithValue("@</t>
+  </si>
+  <si>
+    <t>", vehicle.</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>",insurance.</t>
+  </si>
+  <si>
+    <t>",product.</t>
+  </si>
+  <si>
+    <t>",productInstall.</t>
+  </si>
+  <si>
+    <t>",location.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -783,14 +799,166 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,8 +971,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -827,51 +1181,338 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1158,500 +1799,500 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B2:G231"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217:G231"/>
+    <sheetView topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193:G193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="13.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="11.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="31.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="2">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="2">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>50</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="2">
+      <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>50</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="2">
+      <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>50</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="2">
+      <c r="B8" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>50</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="2">
+      <c r="B10" s="8">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>15</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="2">
+      <c r="B11" s="8">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="2">
+      <c r="B12" s="8">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="2">
+      <c r="B13" s="8">
         <v>9</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>200</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="2">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="2">
+      <c r="B15" s="8">
         <v>11</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="2">
+      <c r="B16" s="8">
         <v>12</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>100</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="2">
+      <c r="B17" s="8">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>15</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="2">
+      <c r="B18" s="8">
         <v>14</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>20</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="2">
+      <c r="B19" s="8">
         <v>15</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>20</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="2">
+      <c r="B20" s="8">
         <v>16</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>20</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="2">
+      <c r="B21" s="8">
         <v>17</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>25</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="2">
+      <c r="B24" s="8">
         <v>18</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="3">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="2">
+      <c r="B25" s="8">
         <v>19</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>16</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="2">
+      <c r="B26" s="8">
         <v>20</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="2">
+      <c r="B27" s="8">
         <v>21</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1660,14 +2301,14 @@
       <c r="D27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="3"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="2">
+      <c r="B28" s="8">
         <v>22</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -1676,324 +2317,324 @@
       <c r="D28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="1"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>100</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="3"/>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
         <v>200</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="3"/>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="1">
         <v>20</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="3"/>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
         <v>20</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="1">
         <v>15</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="3"/>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
         <v>20</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="3"/>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="1">
         <v>20</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="3"/>
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="3"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="3"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="3"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="3"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="3"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="1"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="45">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
+    <row r="50" ht="30" spans="2:7">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="1">
         <v>20</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="5" t="s">
+      <c r="F50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="1">
         <v>200</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="3"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="1">
         <v>1</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="4" t="s">
@@ -2001,1394 +2642,1394 @@
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="7" t="s">
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8" t="s">
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="13">
         <v>20</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8" t="s">
+      <c r="F57" s="13"/>
+      <c r="G57" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="8"/>
-      <c r="C58" s="8" t="s">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="13">
         <v>200</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="6"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="1"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="1"/>
-      <c r="C63" s="10" t="s">
+      <c r="B63" s="5"/>
+      <c r="C63" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="1"/>
-      <c r="C64" s="10" t="s">
+      <c r="B64" s="5"/>
+      <c r="C64" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="1"/>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="5"/>
+      <c r="C65" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="1"/>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="5"/>
+      <c r="C66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="1"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="1"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3" t="s">
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="1"/>
+      <c r="G68" s="5"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="1"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="1">
         <v>20</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="F73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="3"/>
-      <c r="C74" s="11" t="s">
+      <c r="B74" s="1"/>
+      <c r="C74" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="1">
         <v>20</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="3"/>
+      <c r="F74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="3"/>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="1"/>
+      <c r="C75" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="1">
         <v>200</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="3"/>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="3"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="3"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="3"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="1">
         <v>100</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="3"/>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3" t="s">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="1">
         <v>50</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="F80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3" t="s">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3" t="s">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="3"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="1"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="3"/>
+      <c r="B83" s="1"/>
       <c r="C83" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="3"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="3"/>
+      <c r="B84" s="1"/>
       <c r="C84" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3" t="s">
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="1"/>
-      <c r="C87" s="1" t="s">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="D87" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="1"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3" t="s">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3" t="s">
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3" t="s">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="1">
         <v>100</v>
       </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3" t="s">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="1">
         <v>30</v>
       </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="3"/>
-      <c r="C92" s="3" t="s">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="1">
         <v>100</v>
       </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="3"/>
-      <c r="C93" s="3" t="s">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="1">
         <v>200</v>
       </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="3"/>
-      <c r="C94" s="3" t="s">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3" t="s">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3" t="s">
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="3"/>
+      <c r="B97" s="1"/>
       <c r="C97" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="3"/>
+      <c r="B98" s="1"/>
       <c r="C98" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1" t="s">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D101" s="16" t="s">
+      <c r="D101" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="10" t="s">
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G102" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="3"/>
-      <c r="C103" s="3" t="s">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3" t="s">
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="3"/>
-      <c r="C104" s="3" t="s">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="3">
-        <v>10</v>
-      </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="12" t="s">
+      <c r="E104" s="1">
+        <v>10</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="3"/>
-      <c r="C105" s="3" t="s">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3" t="s">
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="3"/>
-      <c r="C106" s="3" t="s">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="1">
         <v>200</v>
       </c>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="3"/>
-      <c r="C107" s="3" t="s">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="1">
         <v>200</v>
       </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="3"/>
-      <c r="C108" s="3" t="s">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3" t="s">
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="3"/>
-      <c r="C109" s="3" t="s">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="3"/>
-      <c r="C110" s="3" t="s">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3" t="s">
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="2:7">
-      <c r="B111" s="3"/>
-      <c r="C111" s="3" t="s">
+    <row r="111" spans="2:6">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="1">
         <v>200</v>
       </c>
-      <c r="F111" s="3"/>
+      <c r="F111" s="1"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="3"/>
+      <c r="B112" s="1"/>
       <c r="C112" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="3"/>
+      <c r="B113" s="1"/>
       <c r="C113" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="6"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="6"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="1"/>
-      <c r="C116" s="1" t="s">
+      <c r="B116" s="5"/>
+      <c r="C116" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D116" s="16" t="s">
+      <c r="D116" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="1"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="10"/>
-      <c r="C118" s="10" t="s">
+      <c r="B118" s="14"/>
+      <c r="C118" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="3" t="s">
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="10"/>
-      <c r="C119" s="10" t="s">
+      <c r="B119" s="14"/>
+      <c r="C119" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10">
+      <c r="E119" s="14"/>
+      <c r="F119" s="14">
         <v>50</v>
       </c>
-      <c r="G119" s="10" t="s">
+      <c r="G119" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="10"/>
-      <c r="C120" s="13" t="s">
+      <c r="B120" s="14"/>
+      <c r="C120" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="1"/>
-      <c r="C122" s="1" t="s">
+      <c r="B122" s="5"/>
+      <c r="C122" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D122" s="16" t="s">
+      <c r="D122" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="1"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G123" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="10"/>
-      <c r="C124" s="10" t="s">
+      <c r="B124" s="14"/>
+      <c r="C124" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="3" t="s">
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="10"/>
-      <c r="C125" s="10" t="s">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10">
+      <c r="E125" s="14"/>
+      <c r="F125" s="14">
         <v>50</v>
       </c>
-      <c r="G125" s="10" t="s">
+      <c r="G125" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="10"/>
-      <c r="C126" s="13" t="s">
+      <c r="B126" s="14"/>
+      <c r="C126" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="14"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="14"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="1"/>
-      <c r="C129" s="1" t="s">
+      <c r="B129" s="5"/>
+      <c r="C129" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D129" s="16" t="s">
+      <c r="D129" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="1"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="5"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G130" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="10"/>
-      <c r="C131" s="10" t="s">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="3" t="s">
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="10"/>
-      <c r="C132" s="10" t="s">
+      <c r="B132" s="14"/>
+      <c r="C132" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10">
+      <c r="E132" s="14"/>
+      <c r="F132" s="14">
         <v>50</v>
       </c>
-      <c r="G132" s="10" t="s">
+      <c r="G132" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="10"/>
-      <c r="C133" s="13" t="s">
+      <c r="B133" s="14"/>
+      <c r="C133" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="1"/>
-      <c r="C135" s="1" t="s">
+      <c r="B135" s="5"/>
+      <c r="C135" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D135" s="16" t="s">
+      <c r="D135" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="10" t="s">
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G136" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="3"/>
+      <c r="B137" s="1"/>
       <c r="C137" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3" t="s">
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="3"/>
-      <c r="C138" s="3" t="s">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3" t="s">
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="3"/>
-      <c r="C139" s="3" t="s">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="3" t="s">
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="3"/>
-      <c r="C140" s="3" t="s">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="1">
         <v>100</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="F140" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="G140" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="3"/>
-      <c r="C141" s="3" t="s">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="1">
         <v>50</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="F141" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G141" s="3"/>
+      <c r="G141" s="1"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="3"/>
-      <c r="C142" s="3" t="s">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="3"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="1"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="3"/>
-      <c r="C143" s="3" t="s">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="3" t="s">
+      <c r="E143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="3"/>
-      <c r="C144" s="3" t="s">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="3" t="s">
+      <c r="E144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="3"/>
-      <c r="C145" s="3" t="s">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3" t="s">
+      <c r="E145" s="1"/>
+      <c r="F145" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G145" s="3" t="s">
+      <c r="G145" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="3"/>
-      <c r="C146" s="3" t="s">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="3"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="1"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="8"/>
-      <c r="C147" s="8" t="s">
+      <c r="B147" s="13"/>
+      <c r="C147" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D147" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8" t="s">
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="3"/>
+      <c r="B148" s="1"/>
       <c r="C148" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="5" t="s">
+      <c r="E148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="2:7" ht="30">
-      <c r="B149" s="3"/>
+    <row r="149" ht="30" spans="2:7">
+      <c r="B149" s="1"/>
       <c r="C149" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="5" t="s">
+      <c r="E149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="3"/>
+      <c r="B150" s="1"/>
       <c r="C150" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="5" t="s">
+      <c r="E150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="3"/>
-      <c r="C151" s="3" t="s">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3" t="s">
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G151" s="3" t="s">
+      <c r="G151" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="3"/>
-      <c r="C152" s="3" t="s">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3" t="s">
+      <c r="E152" s="1"/>
+      <c r="F152" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G152" s="3" t="s">
+      <c r="G152" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="153" spans="2:7">
-      <c r="B153" s="3"/>
-      <c r="C153" s="3" t="s">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="3" t="s">
+      <c r="E153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="3"/>
-      <c r="C154" s="3" t="s">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="3" t="s">
+      <c r="E154" s="1"/>
+      <c r="F154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="155" spans="2:7">
-      <c r="B155" s="3"/>
-      <c r="C155" s="3" t="s">
+      <c r="B155" s="1"/>
+      <c r="C155" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="3" t="s">
+      <c r="E155" s="1"/>
+      <c r="F155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="3"/>
+      <c r="B156" s="1"/>
       <c r="C156" s="4" t="s">
         <v>162</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3" t="s">
+      <c r="E156" s="1"/>
+      <c r="F156" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="4" t="s">
@@ -3396,57 +4037,57 @@
       </c>
     </row>
     <row r="157" spans="2:7">
-      <c r="B157" s="3"/>
+      <c r="B157" s="1"/>
       <c r="C157" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3" t="s">
+      <c r="E157" s="1"/>
+      <c r="F157" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="4"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="3"/>
+      <c r="B158" s="1"/>
       <c r="C158" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3" t="s">
+      <c r="E158" s="1"/>
+      <c r="F158" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="4"/>
     </row>
     <row r="159" spans="2:7">
-      <c r="B159" s="3"/>
+      <c r="B159" s="1"/>
       <c r="C159" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3" t="s">
+      <c r="E159" s="1"/>
+      <c r="F159" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="4"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="3"/>
+      <c r="B160" s="1"/>
       <c r="C160" s="4" t="s">
         <v>167</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3" t="s">
+      <c r="E160" s="1"/>
+      <c r="F160" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="4" t="s">
@@ -3454,29 +4095,29 @@
       </c>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="3"/>
+      <c r="B161" s="1"/>
       <c r="C161" s="4" t="s">
         <v>169</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3" t="s">
+      <c r="E161" s="1"/>
+      <c r="F161" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="4"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="3"/>
+      <c r="B162" s="1"/>
       <c r="C162" s="4" t="s">
         <v>170</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3">
+      <c r="E162" s="1"/>
+      <c r="F162" s="1">
         <v>200</v>
       </c>
       <c r="G162" s="4" t="s">
@@ -3484,15 +4125,15 @@
       </c>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="3"/>
+      <c r="B163" s="1"/>
       <c r="C163" s="4" t="s">
         <v>172</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3" t="s">
+      <c r="E163" s="1"/>
+      <c r="F163" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="4" t="s">
@@ -3500,665 +4141,665 @@
       </c>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="3"/>
+      <c r="B164" s="1"/>
       <c r="C164" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
       <c r="G164" s="4"/>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="3"/>
+      <c r="B165" s="1"/>
       <c r="C165" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="2:7">
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="9"/>
+    <row r="166" spans="3:7">
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="3"/>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="1"/>
-      <c r="C168" s="1" t="s">
+      <c r="B168" s="5"/>
+      <c r="C168" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D168" s="16" t="s">
+      <c r="D168" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E168" s="16"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="1"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="5"/>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F169" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G169" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="3"/>
-      <c r="C170" s="3" t="s">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3" t="s">
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="3"/>
-      <c r="C171" s="3" t="s">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3" t="s">
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="3"/>
-      <c r="C172" s="3" t="s">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3" t="s">
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="3"/>
+      <c r="B173" s="1"/>
       <c r="C173" s="4" t="s">
         <v>176</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="3" t="s">
+      <c r="E173" s="1"/>
+      <c r="F173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="3"/>
+      <c r="B174" s="1"/>
       <c r="C174" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174" s="1">
         <v>500</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="F174" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G174" s="3"/>
+      <c r="G174" s="1"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="3"/>
+      <c r="B175" s="1"/>
       <c r="C175" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
       <c r="G175" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="3"/>
+      <c r="B176" s="1"/>
       <c r="C176" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-    </row>
-    <row r="177" spans="2:7" ht="30">
-      <c r="B177" s="3"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" ht="30" spans="2:7">
+      <c r="B177" s="1"/>
       <c r="C177" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="5" t="s">
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="3"/>
+      <c r="B178" s="1"/>
       <c r="C178" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3" t="s">
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="3"/>
+      <c r="B179" s="1"/>
       <c r="C179" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E179" s="1">
         <v>200</v>
       </c>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="1"/>
-      <c r="C182" s="1" t="s">
+      <c r="B182" s="5"/>
+      <c r="C182" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D182" s="16" t="s">
+      <c r="D182" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E182" s="16"/>
-      <c r="F182" s="16"/>
-      <c r="G182" s="1"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="5"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E183" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F183" s="1" t="s">
+      <c r="F183" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="G183" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="3"/>
-      <c r="C184" s="3" t="s">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D184" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3" t="s">
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="3"/>
+      <c r="B185" s="1"/>
       <c r="C185" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="3" t="s">
+      <c r="E185" s="1"/>
+      <c r="F185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="3"/>
+      <c r="B186" s="1"/>
       <c r="C186" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="3" t="s">
+      <c r="E186" s="1"/>
+      <c r="F186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="187" spans="2:7">
-      <c r="B187" s="3"/>
-      <c r="C187" s="3" t="s">
+      <c r="B187" s="1"/>
+      <c r="C187" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3" t="s">
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="190" spans="2:7">
-      <c r="B190" s="1"/>
-      <c r="C190" s="1" t="s">
+      <c r="B190" s="5"/>
+      <c r="C190" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D190" s="16" t="s">
+      <c r="D190" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E190" s="16"/>
-      <c r="F190" s="16"/>
-      <c r="G190" s="1"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="5"/>
     </row>
     <row r="191" spans="2:7">
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E191" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="F191" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="G191" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="192" spans="2:7">
-      <c r="B192" s="3"/>
-      <c r="C192" s="3" t="s">
+      <c r="B192" s="1"/>
+      <c r="C192" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D192" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3" t="s">
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="193" spans="2:7">
-      <c r="B193" s="3"/>
-      <c r="C193" s="3" t="s">
+      <c r="B193" s="1"/>
+      <c r="C193" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D193" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3" t="s">
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="194" spans="2:7">
-      <c r="B194" s="3"/>
-      <c r="C194" s="3" t="s">
+      <c r="B194" s="1"/>
+      <c r="C194" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
     </row>
     <row r="195" spans="2:7">
-      <c r="B195" s="3"/>
-      <c r="C195" s="3" t="s">
+      <c r="B195" s="1"/>
+      <c r="C195" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
     </row>
     <row r="196" spans="2:7">
-      <c r="B196" s="3"/>
-      <c r="C196" s="3" t="s">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
     </row>
     <row r="197" spans="2:7">
-      <c r="B197" s="3"/>
-      <c r="C197" s="3" t="s">
+      <c r="B197" s="1"/>
+      <c r="C197" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
     </row>
     <row r="199" spans="2:7">
-      <c r="B199" s="1"/>
-      <c r="C199" s="1" t="s">
+      <c r="B199" s="5"/>
+      <c r="C199" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D199" s="16" t="s">
+      <c r="D199" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E199" s="16"/>
-      <c r="F199" s="16"/>
-      <c r="G199" s="1"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="5"/>
     </row>
     <row r="200" spans="2:7">
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E200" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="F200" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="G200" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="201" spans="2:7">
-      <c r="B201" s="3"/>
-      <c r="C201" s="3" t="s">
+      <c r="B201" s="1"/>
+      <c r="C201" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D201" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3" t="s">
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="202" spans="2:7">
-      <c r="B202" s="3"/>
-      <c r="C202" s="3" t="s">
+      <c r="B202" s="1"/>
+      <c r="C202" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3" t="s">
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="203" spans="2:7">
-      <c r="B203" s="3"/>
-      <c r="C203" s="3" t="s">
+      <c r="B203" s="1"/>
+      <c r="C203" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D203" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3" t="s">
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="204" spans="2:7">
-      <c r="B204" s="3"/>
-      <c r="C204" s="3" t="s">
+      <c r="B204" s="1"/>
+      <c r="C204" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
     </row>
     <row r="205" spans="2:7">
-      <c r="B205" s="3"/>
-      <c r="C205" s="3" t="s">
+      <c r="B205" s="1"/>
+      <c r="C205" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
     </row>
     <row r="206" spans="2:7">
-      <c r="B206" s="3"/>
-      <c r="C206" s="3" t="s">
+      <c r="B206" s="1"/>
+      <c r="C206" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
     </row>
     <row r="207" spans="2:7">
-      <c r="B207" s="3"/>
+      <c r="B207" s="1"/>
       <c r="C207" s="4" t="s">
         <v>204</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E207" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
     </row>
     <row r="210" spans="2:7">
-      <c r="B210" s="1"/>
-      <c r="C210" s="1" t="s">
+      <c r="B210" s="5"/>
+      <c r="C210" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D210" s="16" t="s">
+      <c r="D210" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E210" s="16"/>
-      <c r="F210" s="16"/>
-      <c r="G210" s="1"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="5"/>
     </row>
     <row r="211" spans="2:7">
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="E211" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="F211" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="G211" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="212" spans="2:7">
-      <c r="B212" s="3"/>
-      <c r="C212" s="3" t="s">
+      <c r="B212" s="1"/>
+      <c r="C212" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D212" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3" t="s">
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="213" spans="2:7">
-      <c r="B213" s="3"/>
-      <c r="C213" s="3" t="s">
+      <c r="B213" s="1"/>
+      <c r="C213" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="D213" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3" t="s">
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="214" spans="2:7">
-      <c r="B214" s="3"/>
-      <c r="C214" s="3" t="s">
+      <c r="B214" s="1"/>
+      <c r="C214" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E214" s="3">
+      <c r="E214" s="1">
         <v>50</v>
       </c>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
     </row>
     <row r="217" spans="2:7">
-      <c r="B217" s="1"/>
-      <c r="C217" s="1" t="s">
+      <c r="B217" s="5"/>
+      <c r="C217" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D217" s="16" t="s">
+      <c r="D217" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E217" s="16"/>
-      <c r="F217" s="16"/>
-      <c r="G217" s="1"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="5"/>
     </row>
     <row r="218" spans="2:7">
-      <c r="B218" s="1" t="s">
+      <c r="B218" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D218" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="E218" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F218" s="1" t="s">
+      <c r="F218" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="G218" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="2:7">
+    <row r="219" spans="3:7">
       <c r="C219" t="s">
         <v>208</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="D219" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3" t="s">
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="220" spans="2:7">
+    <row r="220" spans="3:7">
       <c r="C220" t="s">
+        <v>209</v>
+      </c>
+      <c r="D220" t="s">
+        <v>210</v>
+      </c>
+      <c r="G220" t="s">
         <v>211</v>
       </c>
-      <c r="D220" t="s">
-        <v>209</v>
-      </c>
-      <c r="G220" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="221" spans="2:7">
+    </row>
+    <row r="221" spans="3:7">
       <c r="C221" t="s">
         <v>212</v>
       </c>
@@ -4169,7 +4810,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="222" spans="2:7">
+    <row r="222" spans="3:7">
       <c r="C222" t="s">
         <v>215</v>
       </c>
@@ -4180,7 +4821,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="223" spans="2:7">
+    <row r="223" spans="3:7">
       <c r="C223" t="s">
         <v>217</v>
       </c>
@@ -4191,7 +4832,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="224" spans="2:7">
+    <row r="224" spans="3:7">
       <c r="C224" t="s">
         <v>219</v>
       </c>
@@ -4202,7 +4843,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="225" spans="2:7">
+    <row r="225" spans="3:7">
       <c r="C225" t="s">
         <v>221</v>
       </c>
@@ -4214,47 +4855,47 @@
       </c>
     </row>
     <row r="229" spans="2:7">
-      <c r="B229" s="1"/>
-      <c r="C229" s="1" t="s">
+      <c r="B229" s="5"/>
+      <c r="C229" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D229" s="16" t="s">
+      <c r="D229" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E229" s="16"/>
-      <c r="F229" s="16"/>
-      <c r="G229" s="1"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="5"/>
     </row>
     <row r="230" spans="2:7">
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="E230" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F230" s="1" t="s">
+      <c r="F230" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="G230" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="2:7">
+    <row r="231" spans="3:7">
       <c r="C231" t="s">
         <v>224</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D231" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3" t="s">
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4270,941 +4911,972 @@
     <mergeCell ref="D101:F101"/>
     <mergeCell ref="D116:F116"/>
     <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D199:F199"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="D217:F217"/>
-    <mergeCell ref="D229:F229"/>
     <mergeCell ref="D129:F129"/>
     <mergeCell ref="D135:F135"/>
     <mergeCell ref="D168:F168"/>
     <mergeCell ref="D182:F182"/>
     <mergeCell ref="D190:F190"/>
+    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="D217:F217"/>
+    <mergeCell ref="D229:F229"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B2:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60:F60"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.5714285714286" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.42857142857143" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="23.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="3"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="3"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>200</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>100</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>50</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="3"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="3"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="1"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>100</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>30</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>100</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>200</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="3"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="3"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="1"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
         <v>20</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="3">
-        <v>10</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
+      <c r="E39" s="1">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="3">
-        <v>10</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
+      <c r="E40" s="1">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
-        <v>230</v>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="3"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="3"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="6"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="1"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3" t="s">
-        <v>231</v>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3" t="s">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="3"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
       <c r="G52" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="3"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="3">
-        <v>10</v>
-      </c>
-      <c r="F53" s="3"/>
+      <c r="E53" s="1">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="3"/>
+      <c r="B54" s="1"/>
       <c r="C54" s="4" t="s">
         <v>179</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
       <c r="G54" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="3"/>
+      <c r="B55" s="1"/>
       <c r="C55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="3"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="7"/>
+      <c r="C57" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D60" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="1"/>
+      <c r="D60" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3" t="s">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3" t="s">
-        <v>231</v>
+      <c r="D63" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="3"/>
+      <c r="B64" s="1"/>
       <c r="C64" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E64" s="3">
+        <v>236</v>
+      </c>
+      <c r="E64" s="1">
         <v>1</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="3"/>
+      <c r="B65" s="1"/>
       <c r="C65" s="4" t="s">
         <v>237</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="1">
         <v>20</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="3"/>
+      <c r="B66" s="1"/>
       <c r="C66" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D66" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="3"/>
+      <c r="B67" s="1"/>
       <c r="C67" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D67" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="3"/>
+      <c r="B68" s="1"/>
       <c r="C68" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D68" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="3"/>
+      <c r="B69" s="1"/>
       <c r="C69" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D69" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="3"/>
+      <c r="B70" s="1"/>
       <c r="C70" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D70" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="3"/>
+      <c r="B71" s="1"/>
       <c r="C71" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D71" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="3"/>
+      <c r="B72" s="1"/>
       <c r="C72" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D72" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="3"/>
+      <c r="B73" s="1"/>
       <c r="C73" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5214,18 +5886,728 @@
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="D60:F60"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B3:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:F41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="24.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="11.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" t="s">
+        <v>249</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" t="s">
+        <v>249</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" t="s">
+        <v>249</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>250</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>250</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" t="s">
+        <v>250</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>245</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Document/Transport Data Dictionary.xlsx
+++ b/Document/Transport Data Dictionary.xlsx
@@ -11,12 +11,12 @@
     <sheet name="vehicle" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" refMode="R1C1" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279">
   <si>
     <t>Table Name</t>
   </si>
@@ -751,6 +751,87 @@
   </si>
   <si>
     <t>msgid</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>TblMstAlert</t>
+  </si>
+  <si>
+    <t>ColumnName</t>
+  </si>
+  <si>
+    <t>AlertId</t>
+  </si>
+  <si>
+    <t>AlertType</t>
+  </si>
+  <si>
+    <t>(SMS, Email, Apps)</t>
+  </si>
+  <si>
+    <t>MsgType</t>
+  </si>
+  <si>
+    <t>1=Opt,2=PostAlert,3=TruckAssign.. etc</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>if Email than HTML enable</t>
+  </si>
+  <si>
+    <t>Small Int</t>
+  </si>
+  <si>
+    <t>0=None,1=Send,2=fail,3=Inprogress</t>
+  </si>
+  <si>
+    <t>UpdateDate</t>
+  </si>
+  <si>
+    <t>TblMstTruckAssignment</t>
+  </si>
+  <si>
+    <t>TruckRequestId</t>
+  </si>
+  <si>
+    <t>BigInt</t>
+  </si>
+  <si>
+    <t>PK Auto generator</t>
+  </si>
+  <si>
+    <t>refe ID</t>
+  </si>
+  <si>
+    <t>RegistrationNo</t>
+  </si>
+  <si>
+    <t>Varchar(30)</t>
+  </si>
+  <si>
+    <t>Number plat</t>
+  </si>
+  <si>
+    <t>DriverName</t>
+  </si>
+  <si>
+    <t>Varchar(50)</t>
+  </si>
+  <si>
+    <t>Varchar(12)</t>
+  </si>
+  <si>
+    <t>small int</t>
+  </si>
+  <si>
+    <t>0=None,1=pending,2=Approve,3=Reject,4=Cancel</t>
+  </si>
+  <si>
+    <t>Varchar(200)</t>
   </si>
   <si>
     <t>connector.AddInParameterWithValue("@</t>
@@ -815,14 +896,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,93 +942,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,8 +963,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,13 +985,78 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -973,7 +1066,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,19 +1162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,25 +1174,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,25 +1210,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,37 +1228,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,37 +1240,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,6 +1275,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1197,11 +1299,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,64 +1372,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1300,134 +1393,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1437,7 +1530,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,11 +1542,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1852,7 +1949,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="8">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1870,7 +1967,7 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="8">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1890,7 +1987,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="8">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1910,7 +2007,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="8">
+      <c r="B7" s="12">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1930,7 +2027,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="8">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1950,7 +2047,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="8"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1966,7 +2063,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="8">
+      <c r="B10" s="12">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1986,7 +2083,7 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="8">
+      <c r="B11" s="12">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2006,7 +2103,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="8">
+      <c r="B12" s="12">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2024,7 +2121,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="8">
+      <c r="B13" s="12">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2044,7 +2141,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="8">
+      <c r="B14" s="12">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2064,7 +2161,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="8">
+      <c r="B15" s="12">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2082,7 +2179,7 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="8">
+      <c r="B16" s="12">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2102,7 +2199,7 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="8">
+      <c r="B17" s="12">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2122,7 +2219,7 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="8">
+      <c r="B18" s="12">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2142,7 +2239,7 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="8">
+      <c r="B19" s="12">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2162,7 +2259,7 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="8">
+      <c r="B20" s="12">
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2182,7 +2279,7 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="8">
+      <c r="B21" s="12">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2202,7 +2299,7 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="8"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
@@ -2218,7 +2315,7 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="8"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
@@ -2234,7 +2331,7 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="8">
+      <c r="B24" s="12">
         <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2254,7 +2351,7 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="8">
+      <c r="B25" s="12">
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2274,7 +2371,7 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="8">
+      <c r="B26" s="12">
         <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2292,7 +2389,7 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="8">
+      <c r="B27" s="12">
         <v>21</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2308,7 +2405,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="8">
+      <c r="B28" s="12">
         <v>22</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2605,7 +2702,7 @@
       <c r="F50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2642,96 +2739,96 @@
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11" t="s">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="11" t="s">
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="13"/>
-      <c r="C56" s="13" t="s">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13" t="s">
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="13"/>
-      <c r="C57" s="13" t="s">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="17">
         <v>20</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13" t="s">
+      <c r="F57" s="17"/>
+      <c r="G57" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="13"/>
-      <c r="C58" s="13" t="s">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="17">
         <v>200</v>
       </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="10"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="5"/>
@@ -2767,7 +2864,7 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="5"/>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -2783,7 +2880,7 @@
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="5"/>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -2799,7 +2896,7 @@
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="5"/>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -3267,7 +3364,7 @@
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="14" t="s">
+      <c r="G101" s="18" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3317,7 +3414,7 @@
         <v>10</v>
       </c>
       <c r="F104" s="1"/>
-      <c r="G104" s="15" t="s">
+      <c r="G104" s="19" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3443,20 +3540,20 @@
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="10"/>
+      <c r="B114" s="14"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="10"/>
+      <c r="B115" s="14"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="5"/>
@@ -3491,44 +3588,44 @@
       </c>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="14"/>
-      <c r="C118" s="14" t="s">
+      <c r="B118" s="18"/>
+      <c r="C118" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D118" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
       <c r="G118" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="14"/>
-      <c r="C119" s="14" t="s">
+      <c r="B119" s="18"/>
+      <c r="C119" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D119" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14">
+      <c r="E119" s="18"/>
+      <c r="F119" s="18">
         <v>50</v>
       </c>
-      <c r="G119" s="14" t="s">
+      <c r="G119" s="18" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="14"/>
-      <c r="C120" s="16" t="s">
+      <c r="B120" s="18"/>
+      <c r="C120" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="5"/>
@@ -3563,60 +3660,60 @@
       </c>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="14"/>
-      <c r="C124" s="14" t="s">
+      <c r="B124" s="18"/>
+      <c r="C124" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
       <c r="G124" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="14"/>
-      <c r="C125" s="14" t="s">
+      <c r="B125" s="18"/>
+      <c r="C125" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14">
+      <c r="E125" s="18"/>
+      <c r="F125" s="18">
         <v>50</v>
       </c>
-      <c r="G125" s="14" t="s">
+      <c r="G125" s="18" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="14"/>
-      <c r="C126" s="16" t="s">
+      <c r="B126" s="18"/>
+      <c r="C126" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="17"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="17"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="5"/>
@@ -3651,44 +3748,44 @@
       </c>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="14"/>
-      <c r="C131" s="14" t="s">
+      <c r="B131" s="18"/>
+      <c r="C131" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D131" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
       <c r="G131" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="14"/>
-      <c r="C132" s="14" t="s">
+      <c r="B132" s="18"/>
+      <c r="C132" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14">
+      <c r="E132" s="18"/>
+      <c r="F132" s="18">
         <v>50</v>
       </c>
-      <c r="G132" s="14" t="s">
+      <c r="G132" s="18" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="14"/>
-      <c r="C133" s="16" t="s">
+      <c r="B133" s="18"/>
+      <c r="C133" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
     </row>
     <row r="135" spans="2:7">
       <c r="B135" s="5"/>
@@ -3700,7 +3797,7 @@
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
-      <c r="G135" s="14" t="s">
+      <c r="G135" s="18" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3879,16 +3976,16 @@
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="13"/>
-      <c r="C147" s="13" t="s">
+      <c r="B147" s="17"/>
+      <c r="C147" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D147" s="13" t="s">
+      <c r="D147" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13" t="s">
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3904,7 +4001,7 @@
       <c r="F148" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G148" s="9" t="s">
+      <c r="G148" s="13" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3920,7 +4017,7 @@
       <c r="F149" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G149" s="9" t="s">
+      <c r="G149" s="13" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3936,7 +4033,7 @@
       <c r="F150" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G150" s="9" t="s">
+      <c r="G150" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4167,8 +4264,8 @@
     <row r="166" spans="3:7">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
       <c r="G166" s="3"/>
     </row>
     <row r="168" spans="2:7">
@@ -4313,7 +4410,7 @@
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
-      <c r="G177" s="9" t="s">
+      <c r="G177" s="13" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4930,16 +5027,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:G73"/>
+  <dimension ref="B2:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5714285714286" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="5.42857142857143" customWidth="1"/>
     <col min="3" max="3" width="24.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="24.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="23.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5681,7 +5779,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="7"/>
+      <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
         <v>232</v>
       </c>
@@ -5877,6 +5975,349 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="C76" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="3:7">
+      <c r="C77" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7">
+      <c r="C78" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="3:7">
+      <c r="C79" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="C82" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7">
+      <c r="C83" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7">
+      <c r="C84" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="8">
+        <v>12</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="3:7">
+      <c r="C85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E85" s="8">
+        <v>50</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="3:7">
+      <c r="C86" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="3:7">
+      <c r="C87" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="3:7">
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="3:7">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="3:7">
+      <c r="C90" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="3:7">
+      <c r="C91" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7">
+      <c r="C92" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7">
+      <c r="C93" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7">
+      <c r="C94" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94" s="8">
+        <v>30</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7">
+      <c r="C95" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E95" s="8">
+        <v>50</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="3:7">
+      <c r="C96" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E96" s="8">
+        <v>12</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="3:7">
+      <c r="C97" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7">
+      <c r="C98" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E98" s="8">
+        <v>200</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="3:7">
+      <c r="C99" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="3:7">
+      <c r="C100" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5896,7 +6337,7 @@
   <sheetPr/>
   <dimension ref="B3:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:F41"/>
     </sheetView>
   </sheetViews>
@@ -5909,189 +6350,189 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6099,274 +6540,274 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F21" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D27" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>209</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D29" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D30" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D31" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>219</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>221</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F33" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="3:3">
@@ -6374,236 +6815,236 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F36" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D37" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F37" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F38" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>227</v>
       </c>
       <c r="D39" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>227</v>
       </c>
       <c r="F39" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D40" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>229</v>
       </c>
       <c r="F40" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F41" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>237</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D49" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D50" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>240</v>
       </c>
       <c r="D51" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>241</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D53" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>243</v>
       </c>
       <c r="D54" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>244</v>
       </c>
       <c r="D55" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
